--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="8115"/>
+    <workbookView windowWidth="18525" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Top Deals
 Deal of the Day
@@ -55,16 +56,19 @@
   <si>
     <t>Top Deals and Featured Offers on Electronics - Best Buy</t>
   </si>
+  <si>
+    <t>Top Deals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -81,6 +85,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -89,15 +121,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,9 +184,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,98 +208,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,11 +432,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,6 +458,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +495,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -495,183 +529,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -679,16 +683,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,8 +1016,8 @@
   <sheetPr/>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1022,62 +1026,110 @@
   </cols>
   <sheetData>
     <row r="1" ht="75" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="60" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="55.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" ht="60" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Top Deals
 Deal of the Day
@@ -56,19 +56,16 @@
   <si>
     <t>Top Deals and Featured Offers on Electronics - Best Buy</t>
   </si>
-  <si>
-    <t>Top Deals</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -86,26 +83,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -121,25 +127,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,6 +165,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -168,6 +188,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -176,54 +212,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,49 +235,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,133 +409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +426,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,6 +455,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,39 +509,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -529,159 +517,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1026,65 +1026,65 @@
   </cols>
   <sheetData>
     <row r="1" ht="75" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" ht="60" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1106,28 +1106,28 @@
     <col min="1" max="1" width="55.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" ht="75" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
